--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_3_modelo_classificacao_banco\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9E8EB-3431-467B-8473-301AD0E48219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC66274-837B-40D0-A702-8A6E387128FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodologia 5W2H" sheetId="10" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>AUC-ROC</t>
-  </si>
-  <si>
     <t>Average Precision</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>O projeto será realizado através da **criação de um modelo de classificação para identificação de fraudes**</t>
+  </si>
+  <si>
+    <t>ROC-AUC</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC53214-60BD-4FE6-89DA-2098A5F1C27A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -856,66 +856,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -942,16 +942,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,13 +959,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +973,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +987,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,13 +1085,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,13 +1099,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,13 +1113,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,13 +1127,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,13 +1155,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,13 +1169,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1183,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1197,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1211,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,13 +1239,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,13 +1253,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1267,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1281,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1295,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1309,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1337,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1351,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1365,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1379,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1413,34 +1413,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1467,211 +1467,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1722,9 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025C8251-4A88-410D-AE97-D5E094F5545E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,36 +1748,36 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1791,16 +1791,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1808,22 +1808,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1831,22 +1831,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1854,22 +1854,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/references/markdown_tables.xlsx
+++ b/references/markdown_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000 - Arquivos\Educação\Habilidades e Treinamentos\Ciência de Dados\Projetos Finais\ds_projeto_final_3_modelo_classificacao_banco\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC66274-837B-40D0-A702-8A6E387128FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43898802-2CAF-48DE-90F5-8BE7EBAD5867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7292E81B-BEA0-441A-B0C0-C80AAE2EAF96}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="123">
   <si>
     <t>Intensidade</t>
   </si>
@@ -245,16 +245,10 @@
     <t>raw</t>
   </si>
   <si>
-    <t>transformed</t>
-  </si>
-  <si>
     <t>Dataset inicial do projeto</t>
   </si>
   <si>
     <t>Dataset tratado, deixando somente as colunas importantes, sem informações redundantes</t>
-  </si>
-  <si>
-    <t>Dataset após receber os pré processamentos</t>
   </si>
   <si>
     <t>Número</t>
@@ -856,66 +850,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -942,16 +936,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -962,10 +956,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,13 +967,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,13 +981,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,13 +1051,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,13 +1065,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,13 +1079,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,13 +1093,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,13 +1107,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,13 +1121,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1135,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,13 +1163,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,13 +1177,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,13 +1191,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,13 +1205,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,13 +1219,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,13 +1233,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,13 +1247,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1261,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1275,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1289,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1303,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1317,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1331,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1359,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1373,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1398,11 +1392,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807773B-FF7B-4C21-A018-43521299C8DA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1418,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1432,15 +1426,7 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
